--- a/data/outputfile.xlsx
+++ b/data/outputfile.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,180 +468,269 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>2740</v>
+        <v>2001</v>
       </c>
       <c r="C2">
-        <v>2060.44</v>
+        <v>1815.23</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>3.75</v>
+      </c>
+      <c r="F2">
+        <v>43.02</v>
+      </c>
+      <c r="G2">
+        <v>219.18</v>
+      </c>
+      <c r="H2">
+        <v>192.33</v>
+      </c>
+      <c r="I2">
+        <v>37.17</v>
+      </c>
+      <c r="J2">
+        <v>46.04</v>
+      </c>
+      <c r="K2">
+        <v>3.9</v>
+      </c>
+      <c r="L2">
+        <v>3.89</v>
+      </c>
+      <c r="M2">
+        <v>30.32</v>
+      </c>
+      <c r="N2">
+        <v>10.72</v>
+      </c>
+      <c r="O2">
+        <v>11.25</v>
+      </c>
+      <c r="P2">
+        <v>132.2</v>
+      </c>
+      <c r="Q2">
+        <v>50.8</v>
+      </c>
+      <c r="R2">
+        <v>50.3</v>
+      </c>
+      <c r="S2">
+        <v>29.99</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>19.4</v>
+      </c>
+      <c r="V2">
+        <v>13</v>
+      </c>
+      <c r="W2">
+        <v>4.5</v>
+      </c>
+      <c r="X2">
+        <v>72.5</v>
+      </c>
+      <c r="Y2">
+        <v>49.4</v>
+      </c>
+      <c r="Z2">
+        <v>63.2</v>
+      </c>
+      <c r="AA2">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>139.4</v>
+      </c>
+      <c r="AC2">
         <v>26</v>
-      </c>
-      <c r="E2">
-        <v>3.85</v>
-      </c>
-      <c r="F2">
-        <v>51.43</v>
-      </c>
-      <c r="G2">
-        <v>248.94</v>
-      </c>
-      <c r="H2">
-        <v>191.43</v>
-      </c>
-      <c r="I2">
-        <v>44.83</v>
-      </c>
-      <c r="J2">
-        <v>54.73</v>
-      </c>
-      <c r="K2">
-        <v>5.03</v>
-      </c>
-      <c r="L2">
-        <v>4.83</v>
-      </c>
-      <c r="M2">
-        <v>36.36</v>
-      </c>
-      <c r="N2">
-        <v>12.44</v>
-      </c>
-      <c r="O2">
-        <v>12.13</v>
-      </c>
-      <c r="P2">
-        <v>143.5</v>
-      </c>
-      <c r="Q2">
-        <v>70.5</v>
-      </c>
-      <c r="R2">
-        <v>69.8</v>
-      </c>
-      <c r="S2">
-        <v>33.51</v>
-      </c>
-      <c r="T2">
-        <v>35.9</v>
-      </c>
-      <c r="U2">
-        <v>22.1</v>
-      </c>
-      <c r="V2">
-        <v>15.5</v>
-      </c>
-      <c r="W2">
-        <v>4.83</v>
-      </c>
-      <c r="X2">
-        <v>85.5</v>
-      </c>
-      <c r="Y2">
-        <v>58</v>
-      </c>
-      <c r="Z2">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>78.3</v>
-      </c>
-      <c r="AB2">
-        <v>163.8</v>
-      </c>
-      <c r="AC2">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>2740</v>
+      </c>
+      <c r="C3">
+        <v>2060.44</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>3.85</v>
+      </c>
+      <c r="F3">
+        <v>51.43</v>
+      </c>
+      <c r="G3">
+        <v>248.94</v>
+      </c>
+      <c r="H3">
+        <v>191.43</v>
+      </c>
+      <c r="I3">
+        <v>44.83</v>
+      </c>
+      <c r="J3">
+        <v>54.73</v>
+      </c>
+      <c r="K3">
+        <v>5.03</v>
+      </c>
+      <c r="L3">
+        <v>4.83</v>
+      </c>
+      <c r="M3">
+        <v>36.36</v>
+      </c>
+      <c r="N3">
+        <v>12.44</v>
+      </c>
+      <c r="O3">
+        <v>12.13</v>
+      </c>
+      <c r="P3">
+        <v>143.5</v>
+      </c>
+      <c r="Q3">
+        <v>70.5</v>
+      </c>
+      <c r="R3">
+        <v>69.8</v>
+      </c>
+      <c r="S3">
+        <v>33.51</v>
+      </c>
+      <c r="T3">
+        <v>35.9</v>
+      </c>
+      <c r="U3">
+        <v>22.1</v>
+      </c>
+      <c r="V3">
+        <v>15.5</v>
+      </c>
+      <c r="W3">
+        <v>4.83</v>
+      </c>
+      <c r="X3">
+        <v>85.5</v>
+      </c>
+      <c r="Y3">
+        <v>58</v>
+      </c>
+      <c r="Z3">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>78.3</v>
+      </c>
+      <c r="AB3">
+        <v>163.8</v>
+      </c>
+      <c r="AC3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1">
         <v>1223</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1216</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1642.41</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2.98</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>37.41</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>102.19</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>37.54</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>32.06</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>22.49</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>5.93</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>2.75</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>27.35</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>8.970000000000001</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>8.970000000000001</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>73.7</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>42.5</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>28.4</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>24.01</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <v>26.1</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>17.8</v>
       </c>
-      <c r="V3">
+      <c r="V4">
         <v>11.3</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>3.71</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <v>6.4</v>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <v>43.9</v>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <v>55.9</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <v>58.9</v>
       </c>
-      <c r="AB3">
+      <c r="AB4">
         <v>65.3</v>
       </c>
-      <c r="AC3">
-        <v>73</v>
+      <c r="AC4">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputfile.xlsx
+++ b/data/outputfile.xlsx
@@ -1,48 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>聚类类别</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,35 +49,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -373,367 +356,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="B1" s="1">
+    <row r="1" spans="1:26">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="n">
+        <v>1262.778633301251</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.09143407122233</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.370548604427334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.665062560154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>116.264677574591</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90.22329162656401</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.28007699711261</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24.59961501443696</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.143407122232917</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.109720885466795</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18.77382098171319</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.26948989412897</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.239653512993263</v>
+      </c>
+      <c r="O2" t="n">
+        <v>85.75842155919153</v>
+      </c>
+      <c r="P2" t="n">
+        <v>30.19056785370549</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30.0827718960539</v>
+      </c>
+      <c r="R2" t="n">
+        <v>23.61982675649663</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18.66410009624639</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11.88257940327238</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.125120307988452</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.913378248315688</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21.50625601539942</v>
+      </c>
+      <c r="X2" t="n">
+        <v>30.50625601539942</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>39.0288739172281</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41.40134744947065</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2">
-        <v>1815.23</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>3.75</v>
-      </c>
-      <c r="F2">
-        <v>43.02</v>
-      </c>
-      <c r="G2">
-        <v>219.18</v>
-      </c>
-      <c r="H2">
-        <v>192.33</v>
-      </c>
-      <c r="I2">
-        <v>37.17</v>
-      </c>
-      <c r="J2">
-        <v>46.04</v>
-      </c>
-      <c r="K2">
-        <v>3.9</v>
-      </c>
-      <c r="L2">
-        <v>3.89</v>
-      </c>
-      <c r="M2">
-        <v>30.32</v>
-      </c>
-      <c r="N2">
-        <v>10.72</v>
-      </c>
-      <c r="O2">
-        <v>11.25</v>
-      </c>
-      <c r="P2">
-        <v>132.2</v>
-      </c>
-      <c r="Q2">
-        <v>50.8</v>
-      </c>
-      <c r="R2">
-        <v>50.3</v>
-      </c>
-      <c r="S2">
-        <v>29.99</v>
-      </c>
-      <c r="T2">
-        <v>30</v>
-      </c>
-      <c r="U2">
-        <v>19.4</v>
-      </c>
-      <c r="V2">
-        <v>13</v>
-      </c>
-      <c r="W2">
-        <v>4.5</v>
-      </c>
-      <c r="X2">
-        <v>72.5</v>
-      </c>
-      <c r="Y2">
-        <v>49.4</v>
-      </c>
-      <c r="Z2">
-        <v>63.2</v>
-      </c>
-      <c r="AA2">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>139.4</v>
-      </c>
-      <c r="AC2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1">
-        <v>71</v>
-      </c>
-      <c r="B3">
-        <v>2740</v>
-      </c>
-      <c r="C3">
-        <v>2060.44</v>
-      </c>
-      <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>3.85</v>
-      </c>
-      <c r="F3">
-        <v>51.43</v>
-      </c>
-      <c r="G3">
-        <v>248.94</v>
-      </c>
-      <c r="H3">
-        <v>191.43</v>
-      </c>
-      <c r="I3">
-        <v>44.83</v>
-      </c>
-      <c r="J3">
-        <v>54.73</v>
-      </c>
-      <c r="K3">
-        <v>5.03</v>
-      </c>
-      <c r="L3">
-        <v>4.83</v>
-      </c>
-      <c r="M3">
-        <v>36.36</v>
-      </c>
-      <c r="N3">
-        <v>12.44</v>
-      </c>
-      <c r="O3">
-        <v>12.13</v>
-      </c>
-      <c r="P3">
-        <v>143.5</v>
-      </c>
-      <c r="Q3">
-        <v>70.5</v>
-      </c>
-      <c r="R3">
-        <v>69.8</v>
-      </c>
-      <c r="S3">
-        <v>33.51</v>
-      </c>
-      <c r="T3">
-        <v>35.9</v>
-      </c>
-      <c r="U3">
-        <v>22.1</v>
-      </c>
-      <c r="V3">
-        <v>15.5</v>
-      </c>
-      <c r="W3">
-        <v>4.83</v>
-      </c>
-      <c r="X3">
-        <v>85.5</v>
-      </c>
-      <c r="Y3">
-        <v>58</v>
-      </c>
-      <c r="Z3">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>78.3</v>
-      </c>
-      <c r="AB3">
-        <v>163.8</v>
-      </c>
-      <c r="AC3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1">
-        <v>1223</v>
-      </c>
-      <c r="B4">
-        <v>1216</v>
-      </c>
-      <c r="C4">
-        <v>1642.41</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4">
-        <v>2.98</v>
-      </c>
-      <c r="F4">
-        <v>37.41</v>
-      </c>
-      <c r="G4">
-        <v>102.19</v>
-      </c>
-      <c r="H4">
-        <v>37.54</v>
-      </c>
-      <c r="I4">
-        <v>32.06</v>
-      </c>
-      <c r="J4">
-        <v>22.49</v>
-      </c>
-      <c r="K4">
-        <v>5.93</v>
-      </c>
-      <c r="L4">
-        <v>2.75</v>
-      </c>
-      <c r="M4">
-        <v>27.35</v>
-      </c>
-      <c r="N4">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="O4">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="P4">
-        <v>73.7</v>
-      </c>
-      <c r="Q4">
-        <v>42.5</v>
-      </c>
-      <c r="R4">
-        <v>28.4</v>
-      </c>
-      <c r="S4">
-        <v>24.01</v>
-      </c>
-      <c r="T4">
-        <v>26.1</v>
-      </c>
-      <c r="U4">
-        <v>17.8</v>
-      </c>
-      <c r="V4">
-        <v>11.3</v>
-      </c>
-      <c r="W4">
-        <v>3.71</v>
-      </c>
-      <c r="X4">
-        <v>6.4</v>
-      </c>
-      <c r="Y4">
-        <v>43.9</v>
-      </c>
-      <c r="Z4">
-        <v>55.9</v>
-      </c>
-      <c r="AA4">
-        <v>58.9</v>
-      </c>
-      <c r="AB4">
-        <v>65.3</v>
-      </c>
-      <c r="AC4">
-        <v>84</v>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1618.165188470067</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.49778270509978</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.196230598669623</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37.57317073170731</v>
+      </c>
+      <c r="F3" t="n">
+        <v>124.4157427937916</v>
+      </c>
+      <c r="G3" t="n">
+        <v>101.2405764966741</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32.21175166297117</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27.22172949002217</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.352549889135255</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.30820399113082</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26.15631929046563</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.990022172949002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.946784922394679</v>
+      </c>
+      <c r="O3" t="n">
+        <v>96.09866962305986</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.81374722838137</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33.65077605321508</v>
+      </c>
+      <c r="R3" t="n">
+        <v>27.55764966740577</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26.27605321507761</v>
+      </c>
+      <c r="T3" t="n">
+        <v>16.33370288248337</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11.38913525498891</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.980044345898004</v>
+      </c>
+      <c r="W3" t="n">
+        <v>23.54656319290466</v>
+      </c>
+      <c r="X3" t="n">
+        <v>42.56430155210643</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>54.60310421286031</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>57.83592017738359</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/outputfile.xlsx
+++ b/data/outputfile.xlsx
@@ -14,7 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>聚类类别</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -445,165 +449,281 @@
       <c r="Z1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B2" t="n">
-        <v>1262.778633301251</v>
+        <v>2740</v>
       </c>
       <c r="C2" t="n">
-        <v>58.09143407122233</v>
+        <v>2060.44</v>
       </c>
       <c r="D2" t="n">
-        <v>2.370548604427334</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>26.665062560154</v>
+        <v>3.85</v>
       </c>
       <c r="F2" t="n">
-        <v>116.264677574591</v>
+        <v>51.43</v>
       </c>
       <c r="G2" t="n">
-        <v>90.22329162656401</v>
+        <v>248.94</v>
       </c>
       <c r="H2" t="n">
-        <v>22.28007699711261</v>
+        <v>191.43</v>
       </c>
       <c r="I2" t="n">
-        <v>24.59961501443696</v>
+        <v>44.83</v>
       </c>
       <c r="J2" t="n">
-        <v>2.143407122232917</v>
+        <v>54.73</v>
       </c>
       <c r="K2" t="n">
-        <v>2.109720885466795</v>
+        <v>5.03</v>
       </c>
       <c r="L2" t="n">
-        <v>18.77382098171319</v>
+        <v>4.83</v>
       </c>
       <c r="M2" t="n">
-        <v>6.26948989412897</v>
+        <v>36.36</v>
       </c>
       <c r="N2" t="n">
-        <v>6.239653512993263</v>
+        <v>12.44</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75842155919153</v>
+        <v>12.13</v>
       </c>
       <c r="P2" t="n">
-        <v>30.19056785370549</v>
+        <v>143.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.0827718960539</v>
+        <v>70.5</v>
       </c>
       <c r="R2" t="n">
-        <v>23.61982675649663</v>
+        <v>69.8</v>
       </c>
       <c r="S2" t="n">
-        <v>18.66410009624639</v>
+        <v>33.51</v>
       </c>
       <c r="T2" t="n">
-        <v>11.88257940327238</v>
+        <v>35.9</v>
       </c>
       <c r="U2" t="n">
-        <v>8.125120307988452</v>
+        <v>22.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.913378248315688</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>21.50625601539942</v>
+        <v>4.83</v>
       </c>
       <c r="X2" t="n">
-        <v>30.50625601539942</v>
+        <v>85.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.0288739172281</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="n">
-        <v>41.40134744947065</v>
+        <v>74.40000000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="B3" t="n">
-        <v>1618.165188470067</v>
+        <v>2326</v>
       </c>
       <c r="C3" t="n">
-        <v>51.49778270509978</v>
+        <v>2218.62</v>
       </c>
       <c r="D3" t="n">
-        <v>3.196230598669623</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>37.57317073170731</v>
+        <v>5.15</v>
       </c>
       <c r="F3" t="n">
-        <v>124.4157427937916</v>
+        <v>54.78</v>
       </c>
       <c r="G3" t="n">
-        <v>101.2405764966741</v>
+        <v>148.07</v>
       </c>
       <c r="H3" t="n">
-        <v>32.21175166297117</v>
+        <v>165.63</v>
       </c>
       <c r="I3" t="n">
-        <v>27.22172949002217</v>
+        <v>47.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.352549889135255</v>
+        <v>32.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.30820399113082</v>
+        <v>5.02</v>
       </c>
       <c r="L3" t="n">
-        <v>26.15631929046563</v>
+        <v>4.88</v>
       </c>
       <c r="M3" t="n">
-        <v>8.990022172949002</v>
+        <v>36.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8.946784922394679</v>
+        <v>13.87</v>
       </c>
       <c r="O3" t="n">
-        <v>96.09866962305986</v>
+        <v>13.92</v>
       </c>
       <c r="P3" t="n">
-        <v>33.81374722838137</v>
+        <v>118.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.65077605321508</v>
+        <v>35.7</v>
       </c>
       <c r="R3" t="n">
-        <v>27.55764966740577</v>
+        <v>36.1</v>
       </c>
       <c r="S3" t="n">
-        <v>26.27605321507761</v>
+        <v>29.48</v>
       </c>
       <c r="T3" t="n">
-        <v>16.33370288248337</v>
+        <v>38.2</v>
       </c>
       <c r="U3" t="n">
-        <v>11.38913525498891</v>
+        <v>24.7</v>
       </c>
       <c r="V3" t="n">
-        <v>3.980044345898004</v>
+        <v>16.5</v>
       </c>
       <c r="W3" t="n">
-        <v>23.54656319290466</v>
+        <v>6.23</v>
       </c>
       <c r="X3" t="n">
-        <v>42.56430155210643</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.60310421286031</v>
+        <v>62.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>57.83592017738359</v>
+        <v>80.40000000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1642.41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>102.19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputfile.xlsx
+++ b/data/outputfile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>聚类类别</t>
   </si>
@@ -23,22 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,26 +57,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -360,99 +373,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -460,273 +467,184 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>71</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2740</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2060.44</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3.85</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>51.43</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>248.94</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>191.43</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>44.83</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>54.73</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>5.03</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>4.83</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>36.36</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>12.44</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>12.13</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>143.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>70.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>69.8</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>33.51</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>35.9</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>22.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>15.5</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>4.83</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>85.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>58</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>74.40000000000001</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>78.3</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>163.8</v>
       </c>
-      <c r="AC2" t="n">
-        <v>44</v>
+      <c r="AC2">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2326</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2218.62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>54.78</v>
-      </c>
-      <c r="G3" t="n">
-        <v>148.07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>165.63</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="M3" t="n">
-        <v>36.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="O3" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="P3" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="T3" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="X3" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="n">
+      <c r="A3" s="1">
         <v>1223</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>1216</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C3">
         <v>1642.41</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E3">
         <v>2.98</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F3">
         <v>37.41</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G3">
         <v>102.19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H3">
         <v>37.54</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I3">
         <v>32.06</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J3">
         <v>22.49</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K3">
         <v>5.93</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L3">
         <v>2.75</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M3">
         <v>27.35</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N3">
         <v>8.970000000000001</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O3">
         <v>8.970000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P3">
         <v>73.7</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q3">
         <v>42.5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R3">
         <v>28.4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S3">
         <v>24.01</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T3">
         <v>26.1</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U3">
         <v>17.8</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V3">
         <v>11.3</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W3">
         <v>3.71</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X3">
         <v>6.4</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y3">
         <v>43.9</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z3">
         <v>55.9</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA3">
         <v>58.9</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB3">
         <v>65.3</v>
       </c>
-      <c r="AC4" t="n">
-        <v>68</v>
+      <c r="AC3">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/outputfile.xlsx
+++ b/data/outputfile.xlsx
@@ -11,14 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>聚类类别</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:26">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -456,192 +448,165 @@
       <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1262.778633301251</v>
+      </c>
+      <c r="C2">
+        <v>58.09143407122233</v>
+      </c>
+      <c r="D2">
+        <v>2.370548604427334</v>
+      </c>
+      <c r="E2">
+        <v>26.665062560154</v>
+      </c>
+      <c r="F2">
+        <v>116.264677574591</v>
+      </c>
+      <c r="G2">
+        <v>90.22329162656401</v>
+      </c>
+      <c r="H2">
+        <v>22.28007699711261</v>
+      </c>
+      <c r="I2">
+        <v>24.59961501443696</v>
+      </c>
+      <c r="J2">
+        <v>2.143407122232917</v>
+      </c>
+      <c r="K2">
+        <v>2.109720885466795</v>
+      </c>
+      <c r="L2">
+        <v>18.77382098171319</v>
+      </c>
+      <c r="M2">
+        <v>6.26948989412897</v>
+      </c>
+      <c r="N2">
+        <v>6.239653512993263</v>
+      </c>
+      <c r="O2">
+        <v>85.75842155919153</v>
+      </c>
+      <c r="P2">
+        <v>30.19056785370549</v>
+      </c>
+      <c r="Q2">
+        <v>30.0827718960539</v>
+      </c>
+      <c r="R2">
+        <v>23.61982675649663</v>
+      </c>
+      <c r="S2">
+        <v>18.66410009624639</v>
+      </c>
+      <c r="T2">
+        <v>11.88257940327238</v>
+      </c>
+      <c r="U2">
+        <v>8.125120307988452</v>
+      </c>
+      <c r="V2">
+        <v>2.913378248315688</v>
+      </c>
+      <c r="W2">
+        <v>21.50625601539942</v>
+      </c>
+      <c r="X2">
+        <v>30.50625601539942</v>
+      </c>
+      <c r="Y2">
+        <v>39.0288739172281</v>
+      </c>
+      <c r="Z2">
+        <v>41.40134744947065</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>2740</v>
-      </c>
-      <c r="C2">
-        <v>2060.44</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>3.85</v>
-      </c>
-      <c r="F2">
-        <v>51.43</v>
-      </c>
-      <c r="G2">
-        <v>248.94</v>
-      </c>
-      <c r="H2">
-        <v>191.43</v>
-      </c>
-      <c r="I2">
-        <v>44.83</v>
-      </c>
-      <c r="J2">
-        <v>54.73</v>
-      </c>
-      <c r="K2">
-        <v>5.03</v>
-      </c>
-      <c r="L2">
-        <v>4.83</v>
-      </c>
-      <c r="M2">
-        <v>36.36</v>
-      </c>
-      <c r="N2">
-        <v>12.44</v>
-      </c>
-      <c r="O2">
-        <v>12.13</v>
-      </c>
-      <c r="P2">
-        <v>143.5</v>
-      </c>
-      <c r="Q2">
-        <v>70.5</v>
-      </c>
-      <c r="R2">
-        <v>69.8</v>
-      </c>
-      <c r="S2">
-        <v>33.51</v>
-      </c>
-      <c r="T2">
-        <v>35.9</v>
-      </c>
-      <c r="U2">
-        <v>22.1</v>
-      </c>
-      <c r="V2">
-        <v>15.5</v>
-      </c>
-      <c r="W2">
-        <v>4.83</v>
-      </c>
-      <c r="X2">
-        <v>85.5</v>
-      </c>
-      <c r="Y2">
-        <v>58</v>
-      </c>
-      <c r="Z2">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>78.3</v>
-      </c>
-      <c r="AB2">
-        <v>163.8</v>
-      </c>
-      <c r="AC2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
-        <v>1223</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1216</v>
+        <v>1618.165188470067</v>
       </c>
       <c r="C3">
-        <v>1642.41</v>
+        <v>51.49778270509978</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>3.196230598669623</v>
       </c>
       <c r="E3">
-        <v>2.98</v>
+        <v>37.57317073170731</v>
       </c>
       <c r="F3">
-        <v>37.41</v>
+        <v>124.4157427937916</v>
       </c>
       <c r="G3">
-        <v>102.19</v>
+        <v>101.2405764966741</v>
       </c>
       <c r="H3">
-        <v>37.54</v>
+        <v>32.21175166297117</v>
       </c>
       <c r="I3">
-        <v>32.06</v>
+        <v>27.22172949002217</v>
       </c>
       <c r="J3">
-        <v>22.49</v>
+        <v>3.352549889135255</v>
       </c>
       <c r="K3">
-        <v>5.93</v>
+        <v>3.30820399113082</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>26.15631929046563</v>
       </c>
       <c r="M3">
-        <v>27.35</v>
+        <v>8.990022172949002</v>
       </c>
       <c r="N3">
-        <v>8.970000000000001</v>
+        <v>8.946784922394679</v>
       </c>
       <c r="O3">
-        <v>8.970000000000001</v>
+        <v>96.09866962305986</v>
       </c>
       <c r="P3">
-        <v>73.7</v>
+        <v>33.81374722838137</v>
       </c>
       <c r="Q3">
-        <v>42.5</v>
+        <v>33.65077605321508</v>
       </c>
       <c r="R3">
-        <v>28.4</v>
+        <v>27.55764966740577</v>
       </c>
       <c r="S3">
-        <v>24.01</v>
+        <v>26.27605321507761</v>
       </c>
       <c r="T3">
-        <v>26.1</v>
+        <v>16.33370288248337</v>
       </c>
       <c r="U3">
-        <v>17.8</v>
+        <v>11.38913525498891</v>
       </c>
       <c r="V3">
-        <v>11.3</v>
+        <v>3.980044345898004</v>
       </c>
       <c r="W3">
-        <v>3.71</v>
+        <v>23.54656319290466</v>
       </c>
       <c r="X3">
-        <v>6.4</v>
+        <v>42.56430155210643</v>
       </c>
       <c r="Y3">
-        <v>43.9</v>
+        <v>54.60310421286031</v>
       </c>
       <c r="Z3">
-        <v>55.9</v>
-      </c>
-      <c r="AA3">
-        <v>58.9</v>
-      </c>
-      <c r="AB3">
-        <v>65.3</v>
-      </c>
-      <c r="AC3">
-        <v>89</v>
+        <v>57.83592017738359</v>
       </c>
     </row>
   </sheetData>
